--- a/開発メモ.xlsx
+++ b/開発メモ.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>activity_main.xml</t>
     <phoneticPr fontId="1"/>
@@ -124,9 +124,6 @@
     <t>InputActivity.java</t>
   </si>
   <si>
-    <t>HistoryActivity.java</t>
-  </si>
-  <si>
     <t>GraphActivity.java</t>
   </si>
   <si>
@@ -280,6 +277,82 @@
   </si>
   <si>
     <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>activity_historydetail.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HistoryActivity.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HistoryDetailActivity.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食前食後</t>
+    <rPh sb="0" eb="2">
+      <t>ショクゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力のときに選択</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日も記述する</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キジュツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -789,6 +862,57 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="カギ線コネクタ 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="1028700"/>
+          <a:ext cx="3438525" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 79917"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -937,61 +1061,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="フローチャート: 書類 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3219449" y="857249"/>
-          <a:ext cx="676275" cy="342901"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>体重</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1054,105 +1123,6 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="33" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2533650" y="1028700"/>
-          <a:ext cx="685799" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="カギ線コネクタ 38"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3895724" y="1028700"/>
-          <a:ext cx="2076451" cy="347663"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1202,15 +1172,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1219,7 +1189,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4667250" y="1133475"/>
+          <a:off x="4819650" y="952500"/>
           <a:ext cx="542925" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1257,56 +1227,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="2"/>
-          <a:endCxn id="6" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2533650" y="1528763"/>
-          <a:ext cx="3429000" cy="14287"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -1408,16 +1328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1426,7 +1346,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3228975" y="1714500"/>
+          <a:off x="2705100" y="1724025"/>
           <a:ext cx="666750" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1469,10 +1389,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1484,8 +1404,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2533650" y="1543050"/>
-          <a:ext cx="695325" cy="342900"/>
+          <a:off x="2343150" y="1543050"/>
+          <a:ext cx="361950" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1516,135 +1436,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="カギ線コネクタ 70"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="2"/>
-          <a:endCxn id="63" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3895726" y="1528762"/>
-          <a:ext cx="2066925" cy="357187"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342902</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="角丸四角形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3562352" y="2847975"/>
-          <a:ext cx="1362074" cy="161926"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>登録 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>/ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>編集</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t> / </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>引用</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
+      <xdr:colOff>142876</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1655,7 +1454,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4143376" y="2333625"/>
+          <a:off x="3857626" y="2333625"/>
           <a:ext cx="542925" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1692,25 +1491,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvPr id="30" name="角丸四角形 29"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4695825" y="1476375"/>
+          <a:off x="3848101" y="438150"/>
           <a:ext cx="542925" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1747,25 +1546,657 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="角丸四角形 29"/>
+        <xdr:cNvPr id="2" name="フローチャート: 書類 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4143376" y="438150"/>
+          <a:off x="6581775" y="1543050"/>
+          <a:ext cx="685800" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>身長</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>目標体重</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="35" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2343150" y="1528763"/>
+          <a:ext cx="3429000" cy="14287"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="フローチャート: 書類 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="1543048"/>
+          <a:ext cx="685800" cy="876301"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>入力日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>入力時間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>体重</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>BMI</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="角丸四角形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924175" y="2847975"/>
+          <a:ext cx="542925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="角丸四角形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619501" y="2847975"/>
+          <a:ext cx="542925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>編集</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="角丸四角形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4295776" y="2847975"/>
+          <a:ext cx="542925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="角丸四角形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991101" y="2847975"/>
+          <a:ext cx="542925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>引用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="角丸四角形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181351" y="1476375"/>
+          <a:ext cx="542925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>編集</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="角丸四角形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857626" y="1476375"/>
+          <a:ext cx="542925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="角丸四角形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552951" y="1476375"/>
+          <a:ext cx="542925" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>引用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="カギ線コネクタ 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="63" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3371850" y="1704975"/>
+          <a:ext cx="2400300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 28571"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="角丸四角形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829176" y="1809750"/>
           <a:ext cx="542925" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2069,7 +2500,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2080,7 +2511,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2132,12 +2563,18 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -2148,7 +2585,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -2159,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -2182,7 +2619,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -2199,16 +2636,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2220,9 +2660,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2230,129 +2672,162 @@
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
-        <v>41</v>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/開発メモ.xlsx
+++ b/開発メモ.xlsx
@@ -346,12 +346,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>曜日も記述する</t>
+    <t>日時OK</t>
     <rPh sb="0" eb="2">
-      <t>ヨウビ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キジュツ</t>
+      <t>ニチジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2663,7 +2660,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K4" sqref="K4:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/開発メモ.xlsx
+++ b/開発メモ.xlsx
@@ -346,12 +346,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>曜日も記述する</t>
+    <t>入力制限がおかしい</t>
     <rPh sb="0" eb="2">
-      <t>ヨウビ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キジュツ</t>
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2660,7 +2660,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -2672,12 +2672,12 @@
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
@@ -2688,8 +2688,10 @@
         <v>41</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2702,7 +2704,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2715,7 +2717,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2740,7 +2742,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
@@ -2753,7 +2755,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -2762,7 +2764,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2773,7 +2775,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
@@ -2785,12 +2787,12 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>55</v>
       </c>

--- a/開発メモ.xlsx
+++ b/開発メモ.xlsx
@@ -2662,14 +2662,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">

--- a/開発メモ.xlsx
+++ b/開発メモ.xlsx
@@ -346,12 +346,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力制限がおかしい</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイゲン</t>
+    <t>未入力のときに落ちる</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2663,7 +2663,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/開発メモ.xlsx
+++ b/開発メモ.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="構成" sheetId="1" r:id="rId1"/>
     <sheet name="図" sheetId="2" r:id="rId2"/>
     <sheet name="チェック" sheetId="3" r:id="rId3"/>
+    <sheet name="参考資料" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>activity_main.xml</t>
     <phoneticPr fontId="1"/>
@@ -353,6 +354,22 @@
     <rPh sb="7" eb="8">
       <t>オ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AndroidでSQLiteのDB操作をするための基礎知識</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.atmarkit.co.jp/ait/articles/0905/20/news111.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Androidアプリの開発をしてみたい初心者集え！！:SQLite(データベース)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://blog.livedoor.jp/passionpineapple/archives/cat_1104304.html</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -360,7 +377,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +388,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -394,12 +420,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,8 +438,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2636,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2662,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2772,7 +2805,9 @@
       <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
@@ -2838,4 +2873,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/開発メモ.xlsx
+++ b/開発メモ.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="構成" sheetId="1" r:id="rId1"/>
     <sheet name="図" sheetId="2" r:id="rId2"/>
     <sheet name="チェック" sheetId="3" r:id="rId3"/>
     <sheet name="参考資料" sheetId="4" r:id="rId4"/>
+    <sheet name="メモ" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>activity_main.xml</t>
     <phoneticPr fontId="1"/>
@@ -196,10 +197,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>◆実装状況</t>
     <rPh sb="1" eb="3">
       <t>ジッソウ</t>
@@ -218,10 +215,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リンク</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -337,39 +330,209 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力のときに選択</t>
+    <t>AndroidでSQLiteのDB操作をするための基礎知識</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.atmarkit.co.jp/ait/articles/0905/20/news111.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Androidアプリの開発をしてみたい初心者集え！！:SQLite(データベース)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://blog.livedoor.jp/passionpineapple/archives/cat_1104304.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Androidアプリの開発をしてみたい初心者集え！！:SQLiteの使い方；第２回 データテーブルの作成</t>
+  </si>
+  <si>
+    <t>http://blog.livedoor.jp/passionpineapple/archives/31946187.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本設定</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標体重</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力日</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
     </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力時間</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標±</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記録</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://ichitcltk.hustle.ne.jp/gudon2/index.php?pageType=file&amp;id=Android032_SQLite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLiteでデータベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ以外で下に表示</t>
+    <rPh sb="3" eb="5">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://techbooster.org/android/application/163/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toastでシンプルにユーザ通知する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力のときに選択(カテゴリ)</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
     <rPh sb="6" eb="8">
       <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未入力のときに落ちる</t>
-    <rPh sb="0" eb="3">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AndroidでSQLiteのDB操作をするための基礎知識</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://www.atmarkit.co.jp/ait/articles/0905/20/news111.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Androidアプリの開発をしてみたい初心者集え！！:SQLite(データベース)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://blog.livedoor.jp/passionpineapple/archives/cat_1104304.html</t>
+    <t>me</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Android SQLite テーブルをコマンドプロンプトで閲覧する方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://novdev.blog.fc2.com/blog-entry-6.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドプロンプト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd ../../</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.tables</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sqlite3 WeightRecorder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd Android_SDK\platform-tools</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chcp 65001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adb shell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd /data/data/com.weightrecorder.weightrecorder/databases</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT * FROM BasicSetting;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -411,12 +574,85 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -428,7 +664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,6 +676,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2596,18 +2859,18 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -2667,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2684,6 +2947,84 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="10"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="10"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2693,10 +3034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2708,18 +3049,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2730,10 +3071,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
@@ -2743,10 +3084,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
@@ -2756,21 +3097,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2778,13 +3117,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
@@ -2803,24 +3142,17 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -2830,10 +3162,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
@@ -2854,18 +3186,26 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2877,10 +3217,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2888,32 +3228,173 @@
     <col min="1" max="1" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="C5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="C8" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>61</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="C14" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C17" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A15"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C11" r:id="rId4"/>
+    <hyperlink ref="C17" r:id="rId5"/>
+    <hyperlink ref="C14" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/開発メモ.xlsx
+++ b/開発メモ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="構成" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
   <si>
     <t>activity_main.xml</t>
     <phoneticPr fontId="1"/>
@@ -189,14 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードをつけるかどうか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>◆実装状況</t>
     <rPh sb="1" eb="3">
       <t>ジッソウ</t>
@@ -223,26 +215,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>戻るボタン</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本体の「戻る」は無効に</t>
-    <rPh sb="0" eb="2">
-      <t>ホンタイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ムコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DB接続</t>
     <rPh sb="2" eb="4">
       <t>セツゾク</t>
@@ -357,74 +329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>基本設定</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>身長</t>
-    <rPh sb="0" eb="2">
-      <t>シンチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標体重</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力日</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力時間</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>体重</t>
-    <rPh sb="0" eb="2">
-      <t>タイジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標±</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記録</t>
-    <rPh sb="0" eb="2">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>http://ichitcltk.hustle.ne.jp/gudon2/index.php?pageType=file&amp;id=Android032_SQLite</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -433,32 +337,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップ以外で下に表示</t>
-    <rPh sb="3" eb="5">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>http://techbooster.org/android/application/163/</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Toastでシンプルにユーザ通知する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -472,14 +355,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>me</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>USER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SQLite</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -496,7 +371,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cd ../../</t>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.tables</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Records ORDER BY number DESC LIMIT 1;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最新</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -504,7 +406,159 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>.tables</t>
+    <t>INSERT INTO Records (year, date, week, time, weight, compare_target) VALUES ('2015.', '10.29', '(THU)', '16:35', 55, '+5');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://mogarhetoric.blog.fc2.com/blog-entry-5.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Android/SimpleAdapterを使ってArrayListのデータをリストビュー表示させる方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通し番号①
+(BasicSetting_id)</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長
+(height)</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標体重
+(target_weight)</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通し番号②
+(Records_id)</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通し番号①
+(Bsid)</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日
+(year_date)</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月日
+(date)</t>
+    <rPh sb="0" eb="2">
+      <t>ツキヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日
+(week)</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間
+(time)</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体重
+(weight)</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本設定 (BasicSetting)</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記録 (Records)</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chcp 65001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adb shell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd /data/data/com.weightrecorder.weightrecorder/databases</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd ../../Android_SDK\platform-tools</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -512,27 +566,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cd Android_SDK\platform-tools</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chcp 65001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>adb shell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cd /data/data/com.weightrecorder.weightrecorder/databases</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SELECT * FROM BasicSetting;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
+    <t>SELECT * FROM Records;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -664,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,17 +718,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -700,6 +729,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -727,13 +768,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>361949</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -744,8 +785,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476251" y="342901"/>
-          <a:ext cx="685800" cy="342900"/>
+          <a:off x="647699" y="342901"/>
+          <a:ext cx="685801" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -781,16 +822,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -799,7 +840,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="342900"/>
+          <a:off x="2009776" y="352425"/>
           <a:ext cx="685800" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -837,13 +878,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -854,7 +895,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="857250"/>
+          <a:off x="2019301" y="857250"/>
           <a:ext cx="685800" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -892,13 +933,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -909,7 +950,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="1371600"/>
+          <a:off x="2019301" y="1371600"/>
           <a:ext cx="685800" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -947,13 +988,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -964,7 +1005,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="2228850"/>
+          <a:off x="2019301" y="2228850"/>
           <a:ext cx="685800" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1002,13 +1043,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1019,7 +1060,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="2743200"/>
+          <a:off x="2019301" y="2743200"/>
           <a:ext cx="685800" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1057,13 +1098,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1077,11 +1118,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1162051" y="514351"/>
-          <a:ext cx="685799" cy="2400299"/>
+          <a:off x="1333500" y="514351"/>
+          <a:ext cx="685801" cy="2400299"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="triangle"/>
@@ -1108,13 +1151,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1128,11 +1171,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1162051" y="514351"/>
-          <a:ext cx="685799" cy="1885949"/>
+          <a:off x="1333500" y="514351"/>
+          <a:ext cx="685801" cy="1885949"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="triangle"/>
@@ -1158,8 +1203,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1178,12 +1223,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2343150" y="1028700"/>
-          <a:ext cx="3438525" cy="342900"/>
+          <a:off x="2705101" y="1028700"/>
+          <a:ext cx="3676649" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 79917"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1210,13 +1255,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1230,11 +1275,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1162051" y="514351"/>
-          <a:ext cx="685799" cy="1028699"/>
+          <a:off x="1333500" y="514351"/>
+          <a:ext cx="685801" cy="1028699"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="triangle"/>
@@ -1267,7 +1314,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1280,8 +1327,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1162050" y="514350"/>
-          <a:ext cx="685800" cy="514350"/>
+          <a:off x="1333500" y="514350"/>
+          <a:ext cx="685801" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1311,15 +1358,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1330,9 +1377,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1162051" y="514350"/>
-          <a:ext cx="685799" cy="1"/>
+        <a:xfrm>
+          <a:off x="1333500" y="514351"/>
+          <a:ext cx="676276" cy="9524"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1379,7 +1426,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5962650" y="1276350"/>
+          <a:off x="6372225" y="1276350"/>
           <a:ext cx="685800" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -1417,14 +1464,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676277</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>342901</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1438,8 +1485,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="4038600" y="-990600"/>
-          <a:ext cx="762000" cy="3771900"/>
+          <a:off x="4329114" y="-1109662"/>
+          <a:ext cx="752475" cy="4019549"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1522,16 +1569,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1542,12 +1589,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2533651" y="1771650"/>
-          <a:ext cx="3609975" cy="628650"/>
+          <a:off x="2705101" y="1762124"/>
+          <a:ext cx="3819524" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 132"/>
+            <a:gd name="adj1" fmla="val -125"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1573,8 +1620,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685802</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
@@ -1594,8 +1641,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3852863" y="461962"/>
-          <a:ext cx="1133475" cy="3771900"/>
+          <a:off x="4143376" y="342900"/>
+          <a:ext cx="1133475" cy="4010024"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1624,14 +1671,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1642,7 +1689,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2705100" y="1724025"/>
+          <a:off x="3629025" y="1724025"/>
           <a:ext cx="666750" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1679,14 +1726,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1700,8 +1747,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2343150" y="1543050"/>
-          <a:ext cx="361950" cy="352425"/>
+          <a:off x="2705101" y="1543050"/>
+          <a:ext cx="923924" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1844,14 +1891,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1860,8 +1907,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6581775" y="1543050"/>
-          <a:ext cx="685800" cy="533400"/>
+          <a:off x="7258050" y="685799"/>
+          <a:ext cx="857250" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -1884,6 +1931,14 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>通し番号①</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -1905,8 +1960,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
@@ -1926,8 +1981,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2343150" y="1528763"/>
-          <a:ext cx="3429000" cy="14287"/>
+          <a:off x="2705101" y="1528763"/>
+          <a:ext cx="3667124" cy="14287"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1956,16 +2011,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171448</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1974,8 +2029,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="1543048"/>
-          <a:ext cx="685800" cy="876301"/>
+          <a:off x="7248524" y="1724024"/>
+          <a:ext cx="866776" cy="1076326"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -1999,10 +2054,86 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>入力日</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通し番号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通し番号①</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
@@ -2010,7 +2141,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>入力時間</a:t>
+            <a:t>入力日時</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
@@ -2021,14 +2152,6 @@
             <a:t>体重</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>BMI</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2424,15 +2547,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2443,12 +2566,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3371850" y="1704975"/>
-          <a:ext cx="2400300" cy="190500"/>
+          <a:off x="4295775" y="1714499"/>
+          <a:ext cx="2076450" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 28571"/>
+            <a:gd name="adj1" fmla="val 33028"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2859,18 +2982,18 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -2930,15 +3053,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2947,83 +3073,95 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="7"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="8"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="4"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="7"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="7"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="9"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3034,10 +3172,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3049,18 +3187,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -3071,62 +3209,77 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
@@ -3135,22 +3288,24 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F10" s="2"/>
@@ -3162,10 +3317,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
@@ -3178,34 +3333,10 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3217,10 +3348,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3229,90 +3360,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>79</v>
+      <c r="A1" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="13"/>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="C2" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="C8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="C5" s="3" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="C11" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="C8" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C19" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3327,6 +3468,7 @@
     <hyperlink ref="C11" r:id="rId4"/>
     <hyperlink ref="C17" r:id="rId5"/>
     <hyperlink ref="C14" r:id="rId6"/>
+    <hyperlink ref="C19" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3334,62 +3476,78 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>91</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/開発メモ.xlsx
+++ b/開発メモ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="構成" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
   <si>
     <t>activity_main.xml</t>
     <phoneticPr fontId="1"/>
@@ -571,6 +571,22 @@
   </si>
   <si>
     <t>SELECT * FROM Records;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://tech.voyagegroup.com/archives/7740509.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Android Studio 0.6.1 でのライブラリプロジェクトのインポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Android Studioで円グラフを書くまでの手順(備忘録) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://note.chiebukuro.yahoo.co.jp/detail/n367498</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3348,10 +3364,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3454,6 +3470,26 @@
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C19" s="3" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C21" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C23" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3469,6 +3505,8 @@
     <hyperlink ref="C17" r:id="rId5"/>
     <hyperlink ref="C14" r:id="rId6"/>
     <hyperlink ref="C19" r:id="rId7"/>
+    <hyperlink ref="C21" r:id="rId8"/>
+    <hyperlink ref="C23" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3478,7 +3516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/開発メモ.xlsx
+++ b/開発メモ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="構成" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>activity_main.xml</t>
     <phoneticPr fontId="1"/>
@@ -189,14 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードをつけるかどうか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>◆実装状況</t>
     <rPh sb="1" eb="3">
       <t>ジッソウ</t>
@@ -219,30 +211,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戻るボタン</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本体の「戻る」は無効に</t>
-    <rPh sb="0" eb="2">
-      <t>ホンタイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ムコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DB接続</t>
     <rPh sb="2" eb="4">
       <t>セツゾク</t>
@@ -260,24 +228,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>履歴詳細</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>activity_historydetail.xml</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -287,13 +237,6 @@
   </si>
   <si>
     <t>HistoryDetailActivity.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>履歴</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -304,22 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>食前食後</t>
     <rPh sb="0" eb="2">
       <t>ショクゼン</t>
@@ -357,108 +284,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>基本設定</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>身長</t>
-    <rPh sb="0" eb="2">
-      <t>シンチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標体重</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力日</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力時間</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>体重</t>
-    <rPh sb="0" eb="2">
-      <t>タイジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標±</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記録</t>
-    <rPh sb="0" eb="2">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>http://ichitcltk.hustle.ne.jp/gudon2/index.php?pageType=file&amp;id=Android032_SQLite</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SQLiteでデータベース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップ以外で下に表示</t>
-    <rPh sb="3" eb="5">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://techbooster.org/android/application/163/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Toastでシンプルにユーザ通知する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -472,14 +302,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>me</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>USER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SQLite</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -496,7 +318,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cd ../../</t>
+    <t>.tables</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -504,7 +326,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>.tables</t>
+    <t>cd ../../Android_SDK\platform-tools</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chcp 65001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adb shell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd /data/data/com.weightrecorder.weightrecorder/databases</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -512,27 +346,189 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cd Android_SDK\platform-tools</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chcp 65001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>adb shell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cd /data/data/com.weightrecorder.weightrecorder/databases</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SELECT * FROM BasicSetting;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>SELECT * FROM Records;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本設定 (BasicSetting)</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通し番号①
+(BasicSetting_id)</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長
+(height)</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標体重
+(target_weight)</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記録 (Records)</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通し番号②
+(Records_id)</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通し番号①
+(Bsid)</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日
+(year_date)</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月日
+(date)</t>
+    <rPh sb="0" eb="2">
+      <t>ツキヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日
+(week)</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間
+(time)</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体重
+(weight)</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toastでシンプルにユーザ通知する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://techbooster.org/android/application/163/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Android/SimpleAdapterを使ってArrayListのデータをリストビュー表示させる方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://mogarhetoric.blog.fc2.com/blog-entry-5.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Android Studio 0.6.1 でのライブラリプロジェクトのインポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://tech.voyagegroup.com/archives/7740509.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gráficos estadísticos en android con HelloCharts | Doapps SAC</t>
+  </si>
+  <si>
+    <t>http://www.doapps.me/graficos-estadisticos-android-con-hellocharts/</t>
+  </si>
+  <si>
+    <t>https://github.com/lecho/hellocharts-android</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hellocharts-android</t>
+  </si>
+  <si>
+    <t>ライブラリ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -664,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,17 +676,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -700,6 +687,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -727,25 +726,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>361949</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="118" name="正方形/長方形 117"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476251" y="342901"/>
-          <a:ext cx="685800" cy="342900"/>
+          <a:off x="647699" y="342901"/>
+          <a:ext cx="685801" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -781,26 +780,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="119" name="正方形/長方形 118"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="342900"/>
-          <a:ext cx="685800" cy="342900"/>
+          <a:off x="2009776" y="352425"/>
+          <a:ext cx="733425" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -837,24 +836,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="120" name="正方形/長方形 119"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="857250"/>
+          <a:off x="2066926" y="857250"/>
           <a:ext cx="685800" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -892,24 +891,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="121" name="正方形/長方形 120"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="1371600"/>
+          <a:off x="2066926" y="1371600"/>
           <a:ext cx="685800" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -947,24 +946,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="122" name="正方形/長方形 121"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="2228850"/>
+          <a:off x="2066926" y="2228850"/>
           <a:ext cx="685800" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1002,24 +1001,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="123" name="正方形/長方形 122"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="2743200"/>
+          <a:off x="2066926" y="2743200"/>
           <a:ext cx="685800" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1057,31 +1056,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="カギ線コネクタ 11"/>
+        <xdr:cNvPr id="124" name="カギ線コネクタ 123"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="8" idx="1"/>
+          <a:stCxn id="118" idx="3"/>
+          <a:endCxn id="123" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1162051" y="514351"/>
-          <a:ext cx="685799" cy="2400299"/>
+          <a:off x="1333500" y="514351"/>
+          <a:ext cx="733426" cy="2400299"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="triangle"/>
@@ -1108,31 +1109,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="カギ線コネクタ 15"/>
+        <xdr:cNvPr id="125" name="カギ線コネクタ 124"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="7" idx="1"/>
+          <a:stCxn id="118" idx="3"/>
+          <a:endCxn id="122" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1162051" y="514351"/>
-          <a:ext cx="685799" cy="1885949"/>
+          <a:off x="1333500" y="514351"/>
+          <a:ext cx="733426" cy="1885949"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="triangle"/>
@@ -1158,8 +1161,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1171,19 +1174,19 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="カギ線コネクタ 38"/>
+        <xdr:cNvPr id="126" name="カギ線コネクタ 125"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
+          <a:stCxn id="120" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2343150" y="1028700"/>
-          <a:ext cx="3438525" cy="342900"/>
+          <a:off x="2752726" y="1028700"/>
+          <a:ext cx="3705224" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 79917"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1210,31 +1213,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="カギ線コネクタ 19"/>
+        <xdr:cNvPr id="127" name="カギ線コネクタ 126"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
+          <a:stCxn id="118" idx="3"/>
+          <a:endCxn id="121" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1162051" y="514351"/>
-          <a:ext cx="685799" cy="1028699"/>
+          <a:off x="1333500" y="514351"/>
+          <a:ext cx="733426" cy="1028699"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="triangle"/>
@@ -1267,21 +1272,21 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="カギ線コネクタ 20"/>
+        <xdr:cNvPr id="128" name="カギ線コネクタ 127"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="5" idx="1"/>
+          <a:endCxn id="120" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1162050" y="514350"/>
-          <a:ext cx="685800" cy="514350"/>
+          <a:off x="1333500" y="514350"/>
+          <a:ext cx="733426" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1311,28 +1316,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvPr id="129" name="直線矢印コネクタ 128"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
+          <a:stCxn id="118" idx="3"/>
+          <a:endCxn id="119" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1162051" y="514350"/>
-          <a:ext cx="685799" cy="1"/>
+        <a:xfrm>
+          <a:off x="1333500" y="514351"/>
+          <a:ext cx="676276" cy="9524"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1374,12 +1379,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="フローチャート: 磁気ディスク 34"/>
+        <xdr:cNvPr id="130" name="フローチャート: 磁気ディスク 129"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5962650" y="1276350"/>
+          <a:off x="6448425" y="1276350"/>
           <a:ext cx="685800" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -1417,29 +1422,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676277</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>342901</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="カギ線コネクタ 40"/>
+        <xdr:cNvPr id="131" name="カギ線コネクタ 130"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="1"/>
-          <a:endCxn id="4" idx="3"/>
+          <a:stCxn id="130" idx="1"/>
+          <a:endCxn id="119" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="4038600" y="-990600"/>
-          <a:ext cx="762000" cy="3771900"/>
+          <a:off x="4391026" y="-1123949"/>
+          <a:ext cx="752475" cy="4048124"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1480,12 +1485,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="角丸四角形 41"/>
+        <xdr:cNvPr id="132" name="角丸四角形 131"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4819650" y="952500"/>
+          <a:off x="5495925" y="952500"/>
           <a:ext cx="542925" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1522,32 +1527,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="カギ線コネクタ 45"/>
+        <xdr:cNvPr id="133" name="カギ線コネクタ 132"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="7" idx="3"/>
+          <a:endCxn id="122" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2533651" y="1771650"/>
-          <a:ext cx="3609975" cy="628650"/>
+          <a:off x="2752726" y="1762124"/>
+          <a:ext cx="3848099" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 132"/>
+            <a:gd name="adj1" fmla="val -125"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1573,8 +1578,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685802</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
@@ -1586,16 +1591,16 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="カギ線コネクタ 47"/>
+        <xdr:cNvPr id="134" name="カギ線コネクタ 133"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="3"/>
-          <a:endCxn id="8" idx="3"/>
+          <a:stCxn id="130" idx="3"/>
+          <a:endCxn id="123" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3852863" y="461962"/>
-          <a:ext cx="1133475" cy="3771900"/>
+          <a:off x="4205289" y="328612"/>
+          <a:ext cx="1133475" cy="4038599"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1624,25 +1629,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+        <xdr:cNvPr id="135" name="正方形/長方形 134"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2705100" y="1724025"/>
+          <a:off x="3705225" y="1724025"/>
           <a:ext cx="666750" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1679,29 +1684,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="カギ線コネクタ 63"/>
+        <xdr:cNvPr id="136" name="カギ線コネクタ 135"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="63" idx="1"/>
+          <a:stCxn id="121" idx="3"/>
+          <a:endCxn id="135" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2343150" y="1543050"/>
-          <a:ext cx="361950" cy="352425"/>
+          <a:off x="2752726" y="1543050"/>
+          <a:ext cx="952499" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1745,12 +1750,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="角丸四角形 26"/>
+        <xdr:cNvPr id="137" name="角丸四角形 136"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3857626" y="2333625"/>
+          <a:off x="4533901" y="2333625"/>
           <a:ext cx="542925" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1800,12 +1805,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="角丸四角形 29"/>
+        <xdr:cNvPr id="138" name="角丸四角形 137"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848101" y="438150"/>
+          <a:off x="4524376" y="438150"/>
           <a:ext cx="542925" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1844,24 +1849,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート: 書類 1"/>
+        <xdr:cNvPr id="139" name="フローチャート: 書類 138"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6581775" y="1543050"/>
-          <a:ext cx="685800" cy="533400"/>
+          <a:off x="7258050" y="685799"/>
+          <a:ext cx="857250" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -1884,6 +1889,14 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>通し番号①</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -1905,8 +1918,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
@@ -1918,16 +1931,16 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvPr id="140" name="直線矢印コネクタ 139"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="35" idx="2"/>
+          <a:stCxn id="121" idx="3"/>
+          <a:endCxn id="130" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2343150" y="1528763"/>
-          <a:ext cx="3429000" cy="14287"/>
+          <a:off x="2752726" y="1528763"/>
+          <a:ext cx="3695699" cy="14287"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1956,26 +1969,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171448</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="フローチャート: 書類 30"/>
+        <xdr:cNvPr id="141" name="フローチャート: 書類 140"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="1543048"/>
-          <a:ext cx="685800" cy="876301"/>
+          <a:off x="7248524" y="1724024"/>
+          <a:ext cx="866776" cy="1076326"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -1999,10 +2012,86 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>入力日</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通し番号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通し番号①</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
@@ -2010,7 +2099,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>入力時間</a:t>
+            <a:t>入力日時</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
@@ -2021,14 +2110,6 @@
             <a:t>体重</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>BMI</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2049,12 +2130,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="角丸四角形 42"/>
+        <xdr:cNvPr id="142" name="角丸四角形 141"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2924175" y="2847975"/>
+          <a:off x="3600450" y="2847975"/>
           <a:ext cx="542925" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2104,12 +2185,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="角丸四角形 48"/>
+        <xdr:cNvPr id="143" name="角丸四角形 142"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619501" y="2847975"/>
+          <a:off x="4295776" y="2847975"/>
           <a:ext cx="542925" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2160,12 +2241,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="角丸四角形 49"/>
+        <xdr:cNvPr id="144" name="角丸四角形 143"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295776" y="2847975"/>
+          <a:off x="4972051" y="2847975"/>
           <a:ext cx="542925" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2215,12 +2296,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="角丸四角形 50"/>
+        <xdr:cNvPr id="145" name="角丸四角形 144"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4991101" y="2847975"/>
+          <a:off x="5667376" y="2847975"/>
           <a:ext cx="542925" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2270,12 +2351,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="角丸四角形 51"/>
+        <xdr:cNvPr id="146" name="角丸四角形 145"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3181351" y="1476375"/>
+          <a:off x="3857626" y="1476375"/>
           <a:ext cx="542925" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2326,12 +2407,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="角丸四角形 52"/>
+        <xdr:cNvPr id="147" name="角丸四角形 146"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3857626" y="1476375"/>
+          <a:off x="4533901" y="1476375"/>
           <a:ext cx="542925" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2381,12 +2462,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="角丸四角形 53"/>
+        <xdr:cNvPr id="148" name="角丸四角形 147"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552951" y="1476375"/>
+          <a:off x="5229226" y="1476375"/>
           <a:ext cx="542925" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2424,31 +2505,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="カギ線コネクタ 35"/>
+        <xdr:cNvPr id="149" name="カギ線コネクタ 148"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="63" idx="3"/>
+          <a:endCxn id="135" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3371850" y="1704975"/>
-          <a:ext cx="2400300" cy="190500"/>
+          <a:off x="4371975" y="1714499"/>
+          <a:ext cx="2076450" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 28571"/>
+            <a:gd name="adj1" fmla="val 33028"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2487,12 +2568,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="角丸四角形 58"/>
+        <xdr:cNvPr id="150" name="角丸四角形 149"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829176" y="1809750"/>
+          <a:off x="5505451" y="1809750"/>
           <a:ext cx="542925" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2859,18 +2940,18 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -2930,15 +3011,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2947,83 +3031,95 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="7"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="8"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="8" t="s">
+    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="7"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="7"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="9"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3034,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3049,18 +3145,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -3071,62 +3167,77 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
@@ -3135,22 +3246,24 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F10" s="2"/>
@@ -3162,10 +3275,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
@@ -3178,34 +3291,10 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3217,10 +3306,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3229,95 +3318,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>79</v>
+      <c r="A1" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
+      <c r="A2" s="13"/>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="B16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="C19" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="C21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C23" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C25" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A15"/>
+    <mergeCell ref="A16:A21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3325,8 +3463,11 @@
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C8" r:id="rId3"/>
     <hyperlink ref="C11" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="C14" r:id="rId6"/>
+    <hyperlink ref="C14" r:id="rId5"/>
+    <hyperlink ref="C23" r:id="rId6"/>
+    <hyperlink ref="C25" r:id="rId7"/>
+    <hyperlink ref="C17" r:id="rId8"/>
+    <hyperlink ref="C19" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3334,62 +3475,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>91</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
